--- a/DataScience/sofix_project/data/daily_data/DealsInfostock-19072021.xlsx
+++ b/DataScience/sofix_project/data/daily_data/DealsInfostock-19072021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Olga\SoftUni\PyCharmProjects\DataScience\sofix_project\data\daily_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D33770-C1C3-419C-AEFA-6247F1BBE97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AE40A9-1333-4C74-B78D-9B74C3E10BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,19 +17,10 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -638,11 +629,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G533"/>
+  <dimension ref="A1:G535"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5626,11 +5615,13 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="1"/>
+      <c r="E266" s="2"/>
       <c r="F266" s="3"/>
       <c r="G266" s="4"/>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="1"/>
+      <c r="E267" s="2"/>
       <c r="F267" s="3"/>
       <c r="G267" s="4"/>
     </row>
@@ -5651,10 +5642,12 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" s="1"/>
+      <c r="F271" s="3"/>
       <c r="G271" s="4"/>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" s="1"/>
+      <c r="F272" s="3"/>
       <c r="G272" s="4"/>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.3">
@@ -5663,14 +5656,10 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="1"/>
-      <c r="E274" s="2"/>
-      <c r="F274" s="3"/>
       <c r="G274" s="4"/>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="1"/>
-      <c r="E275" s="2"/>
-      <c r="F275" s="3"/>
       <c r="G275" s="4"/>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.3">
@@ -5777,10 +5766,14 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" s="1"/>
+      <c r="E293" s="2"/>
+      <c r="F293" s="3"/>
       <c r="G293" s="4"/>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" s="1"/>
+      <c r="E294" s="2"/>
+      <c r="F294" s="3"/>
       <c r="G294" s="4"/>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.3">
@@ -5921,14 +5914,10 @@
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329" s="1"/>
-      <c r="E329" s="2"/>
-      <c r="F329" s="3"/>
       <c r="G329" s="4"/>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330" s="1"/>
-      <c r="E330" s="2"/>
-      <c r="F330" s="3"/>
       <c r="G330" s="4"/>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.3">
@@ -6353,20 +6342,22 @@
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401" s="1"/>
+      <c r="E401" s="2"/>
+      <c r="F401" s="3"/>
       <c r="G401" s="4"/>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A402" s="1"/>
+      <c r="E402" s="2"/>
+      <c r="F402" s="3"/>
       <c r="G402" s="4"/>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A403" s="1"/>
-      <c r="F403" s="3"/>
       <c r="G403" s="4"/>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A404" s="1"/>
-      <c r="F404" s="3"/>
       <c r="G404" s="4"/>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.3">
@@ -6376,22 +6367,22 @@
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A406" s="1"/>
-      <c r="E406" s="2"/>
       <c r="F406" s="3"/>
       <c r="G406" s="4"/>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A407" s="1"/>
+      <c r="F407" s="3"/>
       <c r="G407" s="4"/>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A408" s="1"/>
+      <c r="E408" s="2"/>
       <c r="F408" s="3"/>
       <c r="G408" s="4"/>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A409" s="1"/>
-      <c r="F409" s="3"/>
       <c r="G409" s="4"/>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.3">
@@ -6401,10 +6392,12 @@
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A411" s="1"/>
+      <c r="F411" s="3"/>
       <c r="G411" s="4"/>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A412" s="1"/>
+      <c r="F412" s="3"/>
       <c r="G412" s="4"/>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.3">
@@ -6413,7 +6406,6 @@
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A414" s="1"/>
-      <c r="F414" s="3"/>
       <c r="G414" s="4"/>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.3">
@@ -6422,30 +6414,31 @@
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A416" s="1"/>
+      <c r="F416" s="3"/>
       <c r="G416" s="4"/>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A417" s="1"/>
-      <c r="F417" s="3"/>
       <c r="G417" s="4"/>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A418" s="1"/>
-      <c r="F418" s="3"/>
       <c r="G418" s="4"/>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A419" s="1"/>
-      <c r="E419" s="2"/>
       <c r="F419" s="3"/>
       <c r="G419" s="4"/>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A420" s="1"/>
+      <c r="F420" s="3"/>
       <c r="G420" s="4"/>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A421" s="1"/>
+      <c r="E421" s="2"/>
+      <c r="F421" s="3"/>
       <c r="G421" s="4"/>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.3">
@@ -6458,7 +6451,6 @@
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A424" s="1"/>
-      <c r="F424" s="3"/>
       <c r="G424" s="4"/>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.3">
@@ -6476,28 +6468,28 @@
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A428" s="1"/>
-      <c r="E428" s="2"/>
       <c r="F428" s="3"/>
       <c r="G428" s="4"/>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A429" s="1"/>
-      <c r="E429" s="2"/>
-      <c r="F429" s="3"/>
       <c r="G429" s="4"/>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A430" s="1"/>
+      <c r="E430" s="2"/>
       <c r="F430" s="3"/>
       <c r="G430" s="4"/>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A431" s="1"/>
+      <c r="E431" s="2"/>
       <c r="F431" s="3"/>
       <c r="G431" s="4"/>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A432" s="1"/>
+      <c r="F432" s="3"/>
       <c r="G432" s="4"/>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.3">
@@ -6507,12 +6499,10 @@
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A434" s="1"/>
-      <c r="F434" s="3"/>
       <c r="G434" s="4"/>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A435" s="1"/>
-      <c r="E435" s="2"/>
       <c r="F435" s="3"/>
       <c r="G435" s="4"/>
     </row>
@@ -6523,6 +6513,8 @@
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A437" s="1"/>
+      <c r="E437" s="2"/>
+      <c r="F437" s="3"/>
       <c r="G437" s="4"/>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.3">
@@ -6532,22 +6524,20 @@
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A439" s="1"/>
-      <c r="F439" s="3"/>
       <c r="G439" s="4"/>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A440" s="1"/>
+      <c r="F440" s="3"/>
       <c r="G440" s="4"/>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A441" s="1"/>
-      <c r="E441" s="2"/>
       <c r="F441" s="3"/>
       <c r="G441" s="4"/>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A442" s="1"/>
-      <c r="F442" s="3"/>
       <c r="G442" s="4"/>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.3">
@@ -6558,7 +6548,6 @@
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A444" s="1"/>
-      <c r="E444" s="2"/>
       <c r="F444" s="3"/>
       <c r="G444" s="4"/>
     </row>
@@ -6576,32 +6565,36 @@
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A447" s="1"/>
+      <c r="E447" s="2"/>
       <c r="F447" s="3"/>
       <c r="G447" s="4"/>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A448" s="1"/>
+      <c r="E448" s="2"/>
       <c r="F448" s="3"/>
       <c r="G448" s="4"/>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A449" s="1"/>
-      <c r="E449" s="2"/>
       <c r="F449" s="3"/>
       <c r="G449" s="4"/>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A450" s="1"/>
-      <c r="E450" s="2"/>
       <c r="F450" s="3"/>
       <c r="G450" s="4"/>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A451" s="1"/>
+      <c r="E451" s="2"/>
+      <c r="F451" s="3"/>
       <c r="G451" s="4"/>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A452" s="1"/>
+      <c r="E452" s="2"/>
+      <c r="F452" s="3"/>
       <c r="G452" s="4"/>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.3">
@@ -6618,7 +6611,6 @@
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A456" s="1"/>
-      <c r="F456" s="3"/>
       <c r="G456" s="4"/>
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.3">
@@ -6627,11 +6619,11 @@
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A458" s="1"/>
+      <c r="F458" s="3"/>
       <c r="G458" s="4"/>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A459" s="1"/>
-      <c r="F459" s="3"/>
       <c r="G459" s="4"/>
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.3">
@@ -6640,6 +6632,7 @@
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A461" s="1"/>
+      <c r="F461" s="3"/>
       <c r="G461" s="4"/>
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.3">
@@ -6672,20 +6665,20 @@
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A469" s="1"/>
-      <c r="F469" s="3"/>
       <c r="G469" s="4"/>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A470" s="1"/>
-      <c r="F470" s="3"/>
       <c r="G470" s="4"/>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A471" s="1"/>
+      <c r="F471" s="3"/>
       <c r="G471" s="4"/>
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A472" s="1"/>
+      <c r="F472" s="3"/>
       <c r="G472" s="4"/>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.3">
@@ -6698,7 +6691,6 @@
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A475" s="1"/>
-      <c r="E475" s="2"/>
       <c r="G475" s="4"/>
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.3">
@@ -6708,20 +6700,21 @@
     <row r="477" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A477" s="1"/>
       <c r="E477" s="2"/>
-      <c r="F477" s="3"/>
       <c r="G477" s="4"/>
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A478" s="1"/>
-      <c r="F478" s="3"/>
       <c r="G478" s="4"/>
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A479" s="1"/>
+      <c r="E479" s="2"/>
+      <c r="F479" s="3"/>
       <c r="G479" s="4"/>
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A480" s="1"/>
+      <c r="F480" s="3"/>
       <c r="G480" s="4"/>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.3">
@@ -6750,8 +6743,6 @@
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A487" s="1"/>
-      <c r="E487" s="2"/>
-      <c r="F487" s="3"/>
       <c r="G487" s="4"/>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.3">
@@ -6760,6 +6751,8 @@
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A489" s="1"/>
+      <c r="E489" s="2"/>
+      <c r="F489" s="3"/>
       <c r="G489" s="4"/>
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.3">
@@ -6772,8 +6765,6 @@
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A492" s="1"/>
-      <c r="E492" s="2"/>
-      <c r="F492" s="3"/>
       <c r="G492" s="4"/>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.3">
@@ -6782,6 +6773,8 @@
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A494" s="1"/>
+      <c r="E494" s="2"/>
+      <c r="F494" s="3"/>
       <c r="G494" s="4"/>
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.3">
@@ -6794,8 +6787,6 @@
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A497" s="1"/>
-      <c r="E497" s="2"/>
-      <c r="F497" s="3"/>
       <c r="G497" s="4"/>
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.3">
@@ -6804,36 +6795,37 @@
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A499" s="1"/>
+      <c r="E499" s="2"/>
+      <c r="F499" s="3"/>
       <c r="G499" s="4"/>
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A500" s="1"/>
-      <c r="F500" s="3"/>
       <c r="G500" s="4"/>
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A501" s="1"/>
-      <c r="F501" s="3"/>
       <c r="G501" s="4"/>
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A502" s="1"/>
-      <c r="E502" s="2"/>
       <c r="F502" s="3"/>
       <c r="G502" s="4"/>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A503" s="1"/>
-      <c r="E503" s="2"/>
+      <c r="F503" s="3"/>
       <c r="G503" s="4"/>
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A504" s="1"/>
+      <c r="E504" s="2"/>
+      <c r="F504" s="3"/>
       <c r="G504" s="4"/>
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A505" s="1"/>
-      <c r="F505" s="3"/>
+      <c r="E505" s="2"/>
       <c r="G505" s="4"/>
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.3">
@@ -6842,6 +6834,7 @@
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A507" s="1"/>
+      <c r="F507" s="3"/>
       <c r="G507" s="4"/>
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.3">
@@ -6934,8 +6927,6 @@
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A530" s="1"/>
-      <c r="E530" s="2"/>
-      <c r="F530" s="3"/>
       <c r="G530" s="4"/>
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.3">
@@ -6944,12 +6935,22 @@
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A532" s="1"/>
+      <c r="E532" s="2"/>
       <c r="F532" s="3"/>
       <c r="G532" s="4"/>
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A533" s="1"/>
       <c r="G533" s="4"/>
+    </row>
+    <row r="534" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A534" s="1"/>
+      <c r="F534" s="3"/>
+      <c r="G534" s="4"/>
+    </row>
+    <row r="535" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A535" s="1"/>
+      <c r="G535" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
